--- a/va_facility_data_2025-02-20/PFC James Dunn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''PFC%20James%20Dunn%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/PFC James Dunn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''PFC%20James%20Dunn%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rec0c3c345547422a868230bc3257c6d3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R72c9fbe3d5cb463686285b9bbca877e1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R488a49248f5847e4af7779b39118dc19"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R23cf0d0b4dfe4699921bf6098e393e18"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re336ba9bd72b49b1951fcf1d9bd741ac"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R167128a24f264355aee03473a4198193"/>
   </x:sheets>
 </x:workbook>
 </file>
